--- a/Dashboards-test/PRO.xlsx
+++ b/Dashboards-test/PRO.xlsx
@@ -26,7 +26,7 @@
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
     <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$20</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$20</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$20</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -121,25 +121,28 @@
     <x:t>0,0 (0/0)</x:t>
   </x:si>
   <x:si>
+    <x:t>2,8 (304/107)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (70/28)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,7 (2/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1 (232/76)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,7 (23/32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (21/23)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,2 (2/9)</x:t>
+  </x:si>
+  <x:si>
     <x:t>- (/)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (72/31)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5 (70/28)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,7 (2/3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,7 (23/32)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (21/23)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,2 (2/9)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -619,10 +622,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>168.924368055559</x:v>
+        <x:v>668.958044642859</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>182207.312958334</x:v>
+        <x:v>189545.633166667</x:v>
       </x:c>
       <x:c r="E2" s="16" t="n">
         <x:v>0</x:v>
@@ -658,6 +661,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P2" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q2" s="16" t="n">
+        <x:v>7338.32020833332</x:v>
+      </x:c>
+      <x:c r="R2" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -666,7 +675,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>69.0155972222249</x:v>
+        <x:v>59.1562261904785</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
         <x:v>243977.82375</x:v>
@@ -705,6 +714,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P3" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q3" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R3" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -713,7 +728,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>8.02911111110977</x:v>
+        <x:v>6.88209523809409</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
         <x:v>617576.001125001</x:v>
@@ -753,6 +768,12 @@
       </x:c>
       <x:c r="P4" s="16" t="n">
         <x:v>96.3493333333172</x:v>
+      </x:c>
+      <x:c r="Q4" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R4" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -777,6 +798,8 @@
       <x:c r="N5" s="16" t="s"/>
       <x:c r="O5" s="16" t="s"/>
       <x:c r="P5" s="16" t="s"/>
+      <x:c r="Q5" s="16" t="s"/>
+      <x:c r="R5" s="16" t="s"/>
     </x:row>
     <x:row r="6" spans="1:146">
       <x:c r="B6" s="14" t="s">
@@ -800,6 +823,8 @@
       <x:c r="N6" s="16" t="s"/>
       <x:c r="O6" s="16" t="s"/>
       <x:c r="P6" s="16" t="s"/>
+      <x:c r="Q6" s="16" t="s"/>
+      <x:c r="R6" s="16" t="s"/>
     </x:row>
     <x:row r="7" spans="1:146">
       <x:c r="B7" s="14" t="s">
@@ -823,6 +848,8 @@
       <x:c r="N7" s="16" t="s"/>
       <x:c r="O7" s="16" t="s"/>
       <x:c r="P7" s="16" t="s"/>
+      <x:c r="Q7" s="16" t="s"/>
+      <x:c r="R7" s="16" t="s"/>
     </x:row>
     <x:row r="8" spans="1:146">
       <x:c r="B8" s="14" t="s">
@@ -846,6 +873,8 @@
       <x:c r="N8" s="16" t="s"/>
       <x:c r="O8" s="16" t="s"/>
       <x:c r="P8" s="16" t="s"/>
+      <x:c r="Q8" s="16" t="s"/>
+      <x:c r="R8" s="16" t="s"/>
     </x:row>
     <x:row r="9" spans="1:146">
       <x:c r="B9" s="14" t="s">
@@ -869,6 +898,8 @@
       <x:c r="N9" s="16" t="s"/>
       <x:c r="O9" s="16" t="s"/>
       <x:c r="P9" s="16" t="s"/>
+      <x:c r="Q9" s="16" t="s"/>
+      <x:c r="R9" s="16" t="s"/>
     </x:row>
     <x:row r="10" spans="1:146">
       <x:c r="B10" s="14" t="s">
@@ -892,6 +923,8 @@
       <x:c r="N10" s="16" t="s"/>
       <x:c r="O10" s="16" t="s"/>
       <x:c r="P10" s="16" t="s"/>
+      <x:c r="Q10" s="16" t="s"/>
+      <x:c r="R10" s="16" t="s"/>
     </x:row>
     <x:row r="11" spans="1:146">
       <x:c r="B11" s="14" t="s">
@@ -915,6 +948,8 @@
       <x:c r="N11" s="16" t="s"/>
       <x:c r="O11" s="16" t="s"/>
       <x:c r="P11" s="16" t="s"/>
+      <x:c r="Q11" s="16" t="s"/>
+      <x:c r="R11" s="16" t="s"/>
     </x:row>
     <x:row r="12" spans="1:146">
       <x:c r="B12" s="14" t="s">
@@ -938,6 +973,8 @@
       <x:c r="N12" s="16" t="s"/>
       <x:c r="O12" s="16" t="s"/>
       <x:c r="P12" s="16" t="s"/>
+      <x:c r="Q12" s="16" t="s"/>
+      <x:c r="R12" s="16" t="s"/>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B13" s="14" t="s">
@@ -961,7 +998,9 @@
       <x:c r="N13" s="16" t="s"/>
       <x:c r="O13" s="16" t="s"/>
       <x:c r="P13" s="16" t="s"/>
-      <x:c r="AC13" s="17" t="s"/>
+      <x:c r="Q13" s="16" t="s"/>
+      <x:c r="R13" s="16" t="s"/>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B14" s="14" t="s">
@@ -985,10 +1024,12 @@
       <x:c r="N14" s="16" t="s"/>
       <x:c r="O14" s="16" t="s"/>
       <x:c r="P14" s="16" t="s"/>
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
+      <x:c r="Q14" s="16" t="s"/>
+      <x:c r="R14" s="16" t="s"/>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:146">
       <x:c r="B15" s="14" t="s">
@@ -1034,6 +1075,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R15" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1059,6 +1106,8 @@
       <x:c r="N16" s="16" t="s"/>
       <x:c r="O16" s="16" t="s"/>
       <x:c r="P16" s="16" t="s"/>
+      <x:c r="Q16" s="16" t="s"/>
+      <x:c r="R16" s="16" t="s"/>
     </x:row>
     <x:row r="17" spans="1:146">
       <x:c r="B17" s="14" t="s">
@@ -1096,6 +1145,8 @@
       <x:c r="N17" s="16" t="s"/>
       <x:c r="O17" s="16" t="s"/>
       <x:c r="P17" s="16" t="s"/>
+      <x:c r="Q17" s="16" t="s"/>
+      <x:c r="R17" s="16" t="s"/>
     </x:row>
     <x:row r="18" spans="1:146">
       <x:c r="B18" s="14" t="s">
@@ -1119,6 +1170,8 @@
       <x:c r="N18" s="16" t="s"/>
       <x:c r="O18" s="16" t="s"/>
       <x:c r="P18" s="16" t="s"/>
+      <x:c r="Q18" s="16" t="s"/>
+      <x:c r="R18" s="16" t="s"/>
     </x:row>
     <x:row r="19" spans="1:146">
       <x:c r="B19" s="14" t="s">
@@ -1142,6 +1195,8 @@
       <x:c r="N19" s="16" t="s"/>
       <x:c r="O19" s="16" t="s"/>
       <x:c r="P19" s="16" t="s"/>
+      <x:c r="Q19" s="16" t="s"/>
+      <x:c r="R19" s="16" t="s"/>
     </x:row>
   </x:sheetData>
   <x:dataConsolidate/>
@@ -1169,7 +1224,9 @@
     <x:col min="1" max="1" width="9.285156" style="0" hidden="1" customWidth="1"/>
     <x:col min="2" max="2" width="20.130625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="17.130625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="17" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="4" max="15" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="14.700625" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="13.270625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -1267,10 +1324,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="P2" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -1278,49 +1335,49 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D3" s="19" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E3" s="19" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F3" s="19" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G3" s="19" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D3" s="19" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E3" s="19" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F3" s="19" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G3" s="19" t="s">
+      <x:c r="H3" s="19" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="H3" s="19" t="s">
+      <x:c r="I3" s="19" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J3" s="19" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K3" s="19" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L3" s="19" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M3" s="19" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="N3" s="19" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O3" s="19" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="P3" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="I3" s="19" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="J3" s="19" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K3" s="19" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L3" s="19" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="M3" s="19" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="N3" s="19" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O3" s="19" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="P3" s="19" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
@@ -1367,10 +1424,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
@@ -1381,46 +1438,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M5" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N5" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
@@ -1431,46 +1488,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
@@ -1481,46 +1538,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F7" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
@@ -1531,46 +1588,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
@@ -1581,46 +1638,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
@@ -1631,46 +1688,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
@@ -1681,46 +1738,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E11" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
@@ -1731,46 +1788,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
@@ -1781,46 +1838,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E13" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F13" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
@@ -1831,46 +1888,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E14" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
@@ -1917,10 +1974,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
@@ -1931,46 +1988,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E16" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J16" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K16" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L16" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M16" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N16" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O16" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
@@ -2002,25 +2059,25 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="K17" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L17" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M17" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N17" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O17" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
@@ -2031,46 +2088,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E18" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F18" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G18" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H18" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I18" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J18" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K18" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L18" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M18" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N18" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O18" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P18" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q18" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
@@ -2081,46 +2138,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
